--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D9AA-49C2-411D-A125-31DB3E604D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
   <si>
     <t>group</t>
   </si>
@@ -2350,6 +2350,74 @@
   </si>
   <si>
     <t>皓月长歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么可爱当然是__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然我真的好喜欢你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楪之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山中迷路的小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月幵大fw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱saber与魔人archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路痴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又找不到了qwq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你们为世界带来一些欢乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳烤的咕咕蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠培雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要内卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对不是楠桐的仓妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D592"/>
+  <dimension ref="A1:D607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C587" sqref="C587"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3506,10 +3574,13 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7580,6 +7651,129 @@
       </c>
       <c r="B592" s="3" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>2</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>2</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>2</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>2</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>2</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>2</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>2</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>2</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>2</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>2</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>2</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>2</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>2</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>2</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>2</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10196C-A58B-45F7-ABA1-D313124DF634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="659">
   <si>
     <t>group</t>
   </si>
@@ -2418,6 +2418,22 @@
   </si>
   <si>
     <t>绝对不是楠桐的仓妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无川手页的说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑牙牙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2758,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D607"/>
+  <dimension ref="A1:D611"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="C606" sqref="C606"/>
+      <selection activeCell="C608" sqref="C608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7776,6 +7792,38 @@
         <v>654</v>
       </c>
     </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>2</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>2</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>2</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>2</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10196C-A58B-45F7-ABA1-D313124DF634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C8019-D103-466E-B16E-573F84AEC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="665">
   <si>
     <t>group</t>
   </si>
@@ -2434,6 +2434,30 @@
   </si>
   <si>
     <t>黑牙牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_fds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.71 8281 8284 5904</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2774,21 +2798,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D611"/>
+  <dimension ref="A1:D615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="C608" sqref="C608"/>
+      <selection activeCell="J602" sqref="J602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2813,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2821,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2829,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2837,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2845,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2853,7 +2877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2869,7 +2893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2877,7 +2901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2885,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2893,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2901,7 +2925,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2912,7 +2936,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2920,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2928,7 +2952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2936,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2944,7 +2968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2955,7 +2979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2963,7 +2987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2979,7 +3003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2987,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2995,7 +3019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3011,7 +3035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3019,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3027,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3038,7 +3062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3070,7 +3094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3078,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3102,7 +3126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3118,7 +3142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -3134,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -3142,7 +3166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3150,7 +3174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -3158,7 +3182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3166,7 +3190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -3182,7 +3206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3190,7 +3214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3198,7 +3222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3206,7 +3230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3222,7 +3246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3238,7 +3262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3254,7 +3278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3262,7 +3286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3270,7 +3294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3278,7 +3302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3294,7 +3318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3302,7 +3326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3310,7 +3334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3318,7 +3342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3326,7 +3350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3334,7 +3358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3342,7 +3366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3350,7 +3374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -3358,7 +3382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3382,7 +3406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3390,7 +3414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3398,7 +3422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3406,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -3417,7 +3441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3425,7 +3449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3433,7 +3457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3441,7 +3465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3449,7 +3473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -3457,7 +3481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -3468,7 +3492,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3476,7 +3500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -3484,7 +3508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -3492,7 +3516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -3500,7 +3524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3508,7 +3532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -3516,7 +3540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -3524,7 +3548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -3532,7 +3556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -3548,7 +3572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -3556,7 +3580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -3564,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -3572,7 +3596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -3588,7 +3612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -3599,7 +3623,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -3607,7 +3631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3615,7 +3639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -3623,7 +3647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -3631,7 +3655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -3639,7 +3663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -3647,7 +3671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -3663,7 +3687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -3679,7 +3703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3698,7 +3722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3709,7 +3733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -3725,7 +3749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -3733,7 +3757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -3741,7 +3765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -3749,7 +3773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -3757,7 +3781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -3765,7 +3789,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -3773,7 +3797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -3781,7 +3805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3816,7 +3840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -3832,7 +3856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3840,7 +3864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -3848,7 +3872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -3856,7 +3880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -3864,7 +3888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -3872,7 +3896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3880,7 +3904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -3888,7 +3912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -3896,7 +3920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -3904,7 +3928,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3912,7 +3936,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -3920,7 +3944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -3928,7 +3952,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -3936,7 +3960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3944,7 +3968,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -3952,7 +3976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -3963,7 +3987,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -3971,7 +3995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -3979,7 +4003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -3987,7 +4011,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3995,7 +4019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -4003,7 +4027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -4011,7 +4035,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -4019,7 +4043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -4027,7 +4051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -4035,7 +4059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -4043,7 +4067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -4051,7 +4075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -4059,7 +4083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -4067,7 +4091,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -4075,7 +4099,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -4091,7 +4115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -4099,7 +4123,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -4107,7 +4131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -4115,7 +4139,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -4123,7 +4147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -4134,7 +4158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -4142,7 +4166,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -4150,7 +4174,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -4158,7 +4182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -4169,7 +4193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -4180,7 +4204,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -4191,7 +4215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -4199,7 +4223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -4207,7 +4231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4215,7 +4239,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -4231,7 +4255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -4239,7 +4263,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -4255,7 +4279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -4271,7 +4295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -4295,7 +4319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -4311,7 +4335,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -4319,7 +4343,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -4327,7 +4351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -4335,7 +4359,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -4343,7 +4367,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -4351,7 +4375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -4362,7 +4386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -4370,7 +4394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4378,7 +4402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -4386,7 +4410,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -4394,7 +4418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -4402,7 +4426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4410,7 +4434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -4418,7 +4442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -4434,7 +4458,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -4442,7 +4466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -4450,7 +4474,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -4458,7 +4482,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -4466,7 +4490,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -4474,7 +4498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -4482,7 +4506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -4490,7 +4514,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4498,7 +4522,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -4506,7 +4530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4514,7 +4538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -4522,7 +4546,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -4530,7 +4554,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -4538,7 +4562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -4549,7 +4573,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -4557,7 +4581,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -4568,7 +4592,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -4577,7 +4601,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -4585,7 +4609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -4593,7 +4617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -4601,7 +4625,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4609,7 +4633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -4617,7 +4641,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -4625,7 +4649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -4633,7 +4657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -4641,7 +4665,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -4649,7 +4673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -4660,7 +4684,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -4668,7 +4692,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -4676,7 +4700,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -4684,7 +4708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -4692,7 +4716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -4700,7 +4724,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -4708,7 +4732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -4716,7 +4740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -4724,7 +4748,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -4732,7 +4756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -4740,7 +4764,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -4748,7 +4772,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -4756,7 +4780,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -4764,7 +4788,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -4772,7 +4796,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -4783,7 +4807,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -4791,7 +4815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -4799,7 +4823,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4807,7 +4831,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -4815,7 +4839,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -4823,7 +4847,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -4831,7 +4855,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -4839,7 +4863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -4847,7 +4871,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -4855,7 +4879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -4863,7 +4887,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -4874,7 +4898,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -4882,7 +4906,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -4890,7 +4914,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -4898,7 +4922,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -4906,7 +4930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -4914,7 +4938,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -4922,7 +4946,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -4930,7 +4954,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -4941,7 +4965,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -4949,7 +4973,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -4957,7 +4981,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -4968,7 +4992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -4976,7 +5000,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -4984,7 +5008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -4992,7 +5016,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -5000,7 +5024,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5008,7 +5032,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -5016,7 +5040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -5024,7 +5048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -5032,7 +5056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -5040,7 +5064,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -5048,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -5056,7 +5080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -5064,7 +5088,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -5072,7 +5096,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -5080,7 +5104,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -5088,7 +5112,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -5096,7 +5120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -5104,7 +5128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -5112,7 +5136,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -5120,7 +5144,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -5128,7 +5152,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -5147,7 +5171,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -5155,7 +5179,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -5163,7 +5187,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -5171,7 +5195,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -5179,7 +5203,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -5187,7 +5211,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -5195,7 +5219,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5203,7 +5227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -5211,7 +5235,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -5219,7 +5243,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -5227,7 +5251,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -5235,7 +5259,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -5243,7 +5267,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -5251,7 +5275,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -5259,7 +5283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -5267,7 +5291,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -5278,7 +5302,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -5286,7 +5310,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -5294,7 +5318,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -5302,7 +5326,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -5310,7 +5334,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -5318,7 +5342,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -5326,7 +5350,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -5334,7 +5358,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -5342,7 +5366,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -5350,7 +5374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -5358,7 +5382,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -5366,7 +5390,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -5374,7 +5398,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -5382,7 +5406,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -5390,7 +5414,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -5398,7 +5422,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -5406,7 +5430,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -5414,7 +5438,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -5422,7 +5446,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -5430,7 +5454,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -5438,7 +5462,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -5446,7 +5470,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -5454,7 +5478,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -5462,7 +5486,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -5470,7 +5494,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -5478,7 +5502,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -5486,7 +5510,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -5494,7 +5518,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -5502,7 +5526,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -5510,7 +5534,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -5518,7 +5542,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -5526,7 +5550,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -5534,7 +5558,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -5542,7 +5566,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -5550,7 +5574,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -5558,7 +5582,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -5574,7 +5598,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -5582,7 +5606,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -5590,7 +5614,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -5598,7 +5622,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -5609,7 +5633,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -5617,7 +5641,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -5625,7 +5649,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -5633,7 +5657,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -5641,7 +5665,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -5649,7 +5673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -5657,7 +5681,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -5665,7 +5689,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -5673,7 +5697,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -5681,7 +5705,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -5689,7 +5713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -5697,7 +5721,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -5705,7 +5729,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -5713,7 +5737,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -5721,7 +5745,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -5729,7 +5753,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -5737,7 +5761,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -5745,7 +5769,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -5753,7 +5777,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -5761,7 +5785,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -5772,7 +5796,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5780,7 +5804,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -5788,7 +5812,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -5799,7 +5823,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>2</v>
       </c>
@@ -5807,7 +5831,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>2</v>
       </c>
@@ -5815,7 +5839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -5823,7 +5847,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -5831,7 +5855,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>2</v>
       </c>
@@ -5839,7 +5863,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>2</v>
       </c>
@@ -5847,7 +5871,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>2</v>
       </c>
@@ -5855,7 +5879,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -5863,7 +5887,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>2</v>
       </c>
@@ -5871,7 +5895,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -5879,7 +5903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>2</v>
       </c>
@@ -5887,7 +5911,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>2</v>
       </c>
@@ -5895,7 +5919,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>2</v>
       </c>
@@ -5903,7 +5927,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>2</v>
       </c>
@@ -5911,7 +5935,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>2</v>
       </c>
@@ -5919,7 +5943,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -5927,7 +5951,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -5938,7 +5962,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>2</v>
       </c>
@@ -5946,7 +5970,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -5954,7 +5978,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>2</v>
       </c>
@@ -5962,7 +5986,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -5973,7 +5997,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>2</v>
       </c>
@@ -5981,7 +6005,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>2</v>
       </c>
@@ -5989,7 +6013,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>2</v>
       </c>
@@ -5997,7 +6021,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>2</v>
       </c>
@@ -6005,7 +6029,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -6019,7 +6043,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>2</v>
       </c>
@@ -6027,7 +6051,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -6035,7 +6059,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>2</v>
       </c>
@@ -6043,7 +6067,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>2</v>
       </c>
@@ -6051,7 +6075,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -6059,7 +6083,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>2</v>
       </c>
@@ -6067,7 +6091,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -6081,7 +6105,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -6089,7 +6113,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>2</v>
       </c>
@@ -6097,7 +6121,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>2</v>
       </c>
@@ -6105,7 +6129,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -6113,7 +6137,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>2</v>
       </c>
@@ -6121,7 +6145,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>2</v>
       </c>
@@ -6129,7 +6153,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>2</v>
       </c>
@@ -6137,7 +6161,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>2</v>
       </c>
@@ -6145,7 +6169,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -6153,7 +6177,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>2</v>
       </c>
@@ -6161,7 +6185,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -6169,7 +6193,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -6177,7 +6201,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -6188,7 +6212,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>2</v>
       </c>
@@ -6196,7 +6220,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>2</v>
       </c>
@@ -6204,7 +6228,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>2</v>
       </c>
@@ -6212,7 +6236,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>2</v>
       </c>
@@ -6220,7 +6244,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -6228,7 +6252,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -6236,7 +6260,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -6244,7 +6268,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -6255,7 +6279,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -6263,7 +6287,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -6271,7 +6295,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -6282,7 +6306,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -6290,7 +6314,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>2</v>
       </c>
@@ -6298,7 +6322,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -6306,7 +6330,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -6317,7 +6341,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>2</v>
       </c>
@@ -6329,7 +6353,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>2</v>
       </c>
@@ -6338,7 +6362,7 @@
       </c>
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>2</v>
       </c>
@@ -6346,7 +6370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>2</v>
       </c>
@@ -6354,7 +6378,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>2</v>
       </c>
@@ -6362,7 +6386,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -6370,7 +6394,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>2</v>
       </c>
@@ -6378,7 +6402,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>2</v>
       </c>
@@ -6386,7 +6410,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>2</v>
       </c>
@@ -6394,7 +6418,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>2</v>
       </c>
@@ -6402,7 +6426,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>2</v>
       </c>
@@ -6410,7 +6434,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>2</v>
       </c>
@@ -6418,7 +6442,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -6426,7 +6450,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>2</v>
       </c>
@@ -6434,7 +6458,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>2</v>
       </c>
@@ -6442,7 +6466,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -6450,7 +6474,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>2</v>
       </c>
@@ -6458,7 +6482,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>2</v>
       </c>
@@ -6466,7 +6490,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>2</v>
       </c>
@@ -6474,7 +6498,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>2</v>
       </c>
@@ -6482,7 +6506,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>2</v>
       </c>
@@ -6490,7 +6514,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>2</v>
       </c>
@@ -6498,7 +6522,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -6506,7 +6530,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -6514,7 +6538,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>2</v>
       </c>
@@ -6522,7 +6546,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>2</v>
       </c>
@@ -6530,7 +6554,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>2</v>
       </c>
@@ -6538,7 +6562,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>2</v>
       </c>
@@ -6546,7 +6570,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -6557,7 +6581,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6565,7 +6589,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>2</v>
       </c>
@@ -6573,7 +6597,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>2</v>
       </c>
@@ -6581,7 +6605,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>2</v>
       </c>
@@ -6589,7 +6613,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>2</v>
       </c>
@@ -6597,7 +6621,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>2</v>
       </c>
@@ -6605,7 +6629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>2</v>
       </c>
@@ -6613,7 +6637,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -6624,7 +6648,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -6635,7 +6659,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6643,7 +6667,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6651,7 +6675,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>2</v>
       </c>
@@ -6662,7 +6686,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>2</v>
       </c>
@@ -6670,7 +6694,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>2</v>
       </c>
@@ -6678,7 +6702,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>2</v>
       </c>
@@ -6686,7 +6710,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>2</v>
       </c>
@@ -6694,7 +6718,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>2</v>
       </c>
@@ -6702,7 +6726,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -6710,7 +6734,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>2</v>
       </c>
@@ -6718,7 +6742,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>2</v>
       </c>
@@ -6726,7 +6750,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>2</v>
       </c>
@@ -6734,7 +6758,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>2</v>
       </c>
@@ -6742,7 +6766,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>2</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>2</v>
       </c>
@@ -6758,7 +6782,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>2</v>
       </c>
@@ -6766,7 +6790,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>2</v>
       </c>
@@ -6774,7 +6798,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -6782,7 +6806,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>2</v>
       </c>
@@ -6790,7 +6814,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -6801,7 +6825,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>2</v>
       </c>
@@ -6809,7 +6833,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -6817,7 +6841,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>2</v>
       </c>
@@ -6825,7 +6849,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>2</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>2</v>
       </c>
@@ -6841,7 +6865,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>2</v>
       </c>
@@ -6849,7 +6873,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>2</v>
       </c>
@@ -6857,7 +6881,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -6865,7 +6889,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>2</v>
       </c>
@@ -6873,7 +6897,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>2</v>
       </c>
@@ -6881,7 +6905,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>2</v>
       </c>
@@ -6889,7 +6913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -6900,7 +6924,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>2</v>
       </c>
@@ -6908,7 +6932,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>2</v>
       </c>
@@ -6916,7 +6940,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>2</v>
       </c>
@@ -6924,7 +6948,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>2</v>
       </c>
@@ -6932,7 +6956,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>2</v>
       </c>
@@ -6940,7 +6964,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>2</v>
       </c>
@@ -6948,7 +6972,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>2</v>
       </c>
@@ -6956,7 +6980,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>2</v>
       </c>
@@ -6964,7 +6988,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>2</v>
       </c>
@@ -6972,7 +6996,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>2</v>
       </c>
@@ -6980,7 +7004,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>2</v>
       </c>
@@ -6988,7 +7012,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>2</v>
       </c>
@@ -7007,7 +7031,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>2</v>
       </c>
@@ -7015,7 +7039,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>2</v>
       </c>
@@ -7023,7 +7047,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>2</v>
       </c>
@@ -7031,7 +7055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>2</v>
       </c>
@@ -7039,7 +7063,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>2</v>
       </c>
@@ -7047,7 +7071,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>2</v>
       </c>
@@ -7055,7 +7079,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>2</v>
       </c>
@@ -7063,7 +7087,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>2</v>
       </c>
@@ -7071,7 +7095,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>2</v>
       </c>
@@ -7079,7 +7103,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>2</v>
       </c>
@@ -7087,7 +7111,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>2</v>
       </c>
@@ -7095,7 +7119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>2</v>
       </c>
@@ -7103,7 +7127,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>2</v>
       </c>
@@ -7111,7 +7135,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>2</v>
       </c>
@@ -7119,7 +7143,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>2</v>
       </c>
@@ -7127,7 +7151,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>2</v>
       </c>
@@ -7135,7 +7159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>2</v>
       </c>
@@ -7143,7 +7167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>2</v>
       </c>
@@ -7151,7 +7175,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>2</v>
       </c>
@@ -7159,7 +7183,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>2</v>
       </c>
@@ -7167,7 +7191,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>2</v>
       </c>
@@ -7175,7 +7199,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>2</v>
       </c>
@@ -7183,7 +7207,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>2</v>
       </c>
@@ -7191,7 +7215,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>2</v>
       </c>
@@ -7199,7 +7223,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>2</v>
       </c>
@@ -7207,7 +7231,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>2</v>
       </c>
@@ -7215,7 +7239,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>2</v>
       </c>
@@ -7223,7 +7247,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>2</v>
       </c>
@@ -7231,7 +7255,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>2</v>
       </c>
@@ -7239,7 +7263,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>2</v>
       </c>
@@ -7250,7 +7274,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>2</v>
       </c>
@@ -7258,7 +7282,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>2</v>
       </c>
@@ -7266,7 +7290,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>2</v>
       </c>
@@ -7274,7 +7298,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>2</v>
       </c>
@@ -7282,7 +7306,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>2</v>
       </c>
@@ -7290,7 +7314,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -7298,7 +7322,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>2</v>
       </c>
@@ -7306,7 +7330,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -7317,7 +7341,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>2</v>
       </c>
@@ -7325,7 +7349,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>2</v>
       </c>
@@ -7333,7 +7357,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>2</v>
       </c>
@@ -7341,7 +7365,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>2</v>
       </c>
@@ -7349,7 +7373,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>2</v>
       </c>
@@ -7357,7 +7381,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>2</v>
       </c>
@@ -7365,7 +7389,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>2</v>
       </c>
@@ -7373,7 +7397,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>2</v>
       </c>
@@ -7381,7 +7405,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -7389,7 +7413,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>2</v>
       </c>
@@ -7397,7 +7421,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>2</v>
       </c>
@@ -7405,7 +7429,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>2</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>2</v>
       </c>
@@ -7421,7 +7445,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>2</v>
       </c>
@@ -7429,7 +7453,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>2</v>
       </c>
@@ -7437,7 +7461,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>2</v>
       </c>
@@ -7445,7 +7469,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>2</v>
       </c>
@@ -7453,7 +7477,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>2</v>
       </c>
@@ -7461,7 +7485,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>2</v>
       </c>
@@ -7469,7 +7493,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2</v>
       </c>
@@ -7477,7 +7501,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>2</v>
       </c>
@@ -7485,7 +7509,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>2</v>
       </c>
@@ -7493,7 +7517,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>2</v>
       </c>
@@ -7501,7 +7525,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>2</v>
       </c>
@@ -7509,7 +7533,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>2</v>
       </c>
@@ -7517,7 +7541,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>2</v>
       </c>
@@ -7525,7 +7549,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>2</v>
       </c>
@@ -7533,7 +7557,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>2</v>
       </c>
@@ -7541,7 +7565,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>2</v>
       </c>
@@ -7549,7 +7573,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>2</v>
       </c>
@@ -7557,7 +7581,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>2</v>
       </c>
@@ -7565,7 +7589,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>2</v>
       </c>
@@ -7573,7 +7597,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>2</v>
       </c>
@@ -7581,7 +7605,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>2</v>
       </c>
@@ -7589,7 +7613,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>2</v>
       </c>
@@ -7597,7 +7621,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>2</v>
       </c>
@@ -7605,7 +7629,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>2</v>
       </c>
@@ -7613,7 +7637,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>2</v>
       </c>
@@ -7621,7 +7645,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>2</v>
       </c>
@@ -7629,7 +7653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>2</v>
       </c>
@@ -7637,7 +7661,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>2</v>
       </c>
@@ -7645,7 +7669,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>2</v>
       </c>
@@ -7653,7 +7677,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>2</v>
       </c>
@@ -7661,7 +7685,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>2</v>
       </c>
@@ -7669,7 +7693,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>2</v>
       </c>
@@ -7677,7 +7701,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>2</v>
       </c>
@@ -7688,7 +7712,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>2</v>
       </c>
@@ -7696,7 +7720,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>2</v>
       </c>
@@ -7704,7 +7728,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>2</v>
       </c>
@@ -7712,7 +7736,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>2</v>
       </c>
@@ -7720,7 +7744,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>2</v>
       </c>
@@ -7728,7 +7752,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>2</v>
       </c>
@@ -7736,7 +7760,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>2</v>
       </c>
@@ -7744,7 +7768,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>2</v>
       </c>
@@ -7752,7 +7776,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>2</v>
       </c>
@@ -7760,7 +7784,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>2</v>
       </c>
@@ -7768,7 +7792,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -7776,7 +7800,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>2</v>
       </c>
@@ -7784,7 +7808,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>2</v>
       </c>
@@ -7792,7 +7816,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>2</v>
       </c>
@@ -7800,7 +7824,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>2</v>
       </c>
@@ -7808,7 +7832,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>2</v>
       </c>
@@ -7816,12 +7840,50 @@
         <v>657</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>2</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>2</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>2</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>2</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>1</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
